--- a/bc_starter_package/doc/BC Examples.xlsx
+++ b/bc_starter_package/doc/BC Examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\bc_starter_package\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E6C4E7-D325-44A8-A058-1CC3EC81F26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB9555B-9F51-4777-8613-2C7E9BDED6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{5BC52F4C-7A2B-46DF-8F28-26E2E87FC85C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BC52F4C-7A2B-46DF-8F28-26E2E87FC85C}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_LB" sheetId="4" r:id="rId1"/>
@@ -1840,25 +1840,25 @@
       <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.29296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="31.05859375" customWidth="1"/>
-    <col min="3" max="3" width="7.87890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="31.05859375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.05859375" customWidth="1"/>
-    <col min="8" max="8" width="17.5859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.29296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="6.41015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.87890625" customWidth="1"/>
-    <col min="12" max="12" width="7.29296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.87890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>414</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>414</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>414</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>414</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>414</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>414</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>414</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>414</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="Q9" s="33"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>414</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>414</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>414</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>414</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="Q13" s="33"/>
       <c r="R13" s="34"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>414</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="34"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>414</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="Q15" s="33"/>
       <c r="R15" s="34"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>414</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="R16" s="34"/>
     </row>
-    <row r="17" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>414</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>414</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="Q18" s="33"/>
       <c r="R18" s="34"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>414</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="Q19" s="33"/>
       <c r="R19" s="34"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>414</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="Q20" s="33"/>
       <c r="R20" s="34"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>414</v>
       </c>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>414</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>414</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="Q23" s="33"/>
       <c r="R23" s="34"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>414</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="Q24" s="33"/>
       <c r="R24" s="34"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>414</v>
       </c>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="R25" s="34"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>414</v>
       </c>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="R26" s="34"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>414</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>414</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>414</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>414</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>414</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>414</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>414</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>414</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>414</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>414</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>414</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>414</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>414</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>414</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>414</v>
       </c>
@@ -3372,24 +3372,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A59"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.17578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.87890625" customWidth="1"/>
-    <col min="6" max="6" width="27.76171875" customWidth="1"/>
-    <col min="7" max="7" width="18.41015625" customWidth="1"/>
-    <col min="8" max="8" width="11.1171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.1171875" customWidth="1"/>
-    <col min="10" max="10" width="7.46875" customWidth="1"/>
-    <col min="12" max="12" width="7.87890625" customWidth="1"/>
-    <col min="15" max="15" width="20.17578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.41015625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>414</v>
       </c>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>414</v>
       </c>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>414</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>414</v>
       </c>
@@ -3602,7 +3602,7 @@
       <c r="N5" s="6"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>414</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>414</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>414</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="N8" s="6"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>414</v>
       </c>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:18" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>414</v>
       </c>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>414</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>414</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>414</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>414</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="5" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>414</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>414</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>414</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>414</v>
       </c>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>414</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>414</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>414</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>414</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="5" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>414</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>414</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="N24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>414</v>
       </c>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>414</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>414</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>414</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>414</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:17" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>414</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>414</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="N31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>414</v>
       </c>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>414</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>414</v>
       </c>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>414</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>414</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="N36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>414</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>414</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>414</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>414</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>414</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="5" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:17" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>414</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>414</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="O43" s="11"/>
       <c r="Q43" s="12"/>
     </row>
-    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>414</v>
       </c>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="Q44" s="12"/>
     </row>
-    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>414</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>414</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:17" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>414</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="O47" s="11"/>
       <c r="Q47" s="12"/>
     </row>
-    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>414</v>
       </c>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>414</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>414</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:19" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>414</v>
       </c>
@@ -5314,7 +5314,7 @@
       <c r="O51" s="11"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>414</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="Q52" s="12"/>
     </row>
-    <row r="53" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>414</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>414</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="N54" s="9"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="55" spans="1:19" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>414</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>414</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>414</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>414</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>414</v>
       </c>
@@ -5789,46 +5789,46 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A104"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.87890625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.29296875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="39" customWidth="1"/>
     <col min="4" max="4" width="7" style="35" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="12.29296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.76171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5859375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.46875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.703125" customWidth="1"/>
-    <col min="12" max="12" width="11.703125" customWidth="1"/>
-    <col min="13" max="13" width="17.87890625" customWidth="1"/>
-    <col min="14" max="14" width="14.87890625" customWidth="1"/>
-    <col min="15" max="15" width="25.29296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1171875" customWidth="1"/>
-    <col min="17" max="17" width="29.41015625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.29296875" customWidth="1"/>
-    <col min="19" max="19" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.5859375" style="10" customWidth="1"/>
-    <col min="21" max="21" width="24.29296875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="17" max="17" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.5703125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" style="10" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.29296875" customWidth="1"/>
-    <col min="25" max="26" width="7.41015625" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" customWidth="1"/>
+    <col min="25" max="26" width="7.42578125" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="6.703125" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" customWidth="1"/>
     <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="10.87890625" customWidth="1"/>
-    <col min="31" max="31" width="5.29296875" customWidth="1"/>
-    <col min="32" max="32" width="9.1171875" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" customWidth="1"/>
     <col min="33" max="33" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="21" customFormat="1" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>414</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>414</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>414</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>414</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>414</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>414</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="AG7" s="36"/>
     </row>
-    <row r="8" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>414</v>
       </c>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="AG8" s="36"/>
     </row>
-    <row r="9" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>414</v>
       </c>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="AG9" s="36"/>
     </row>
-    <row r="10" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>414</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>414</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>414</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="AF12" s="36"/>
       <c r="AG12" s="36"/>
     </row>
-    <row r="13" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>414</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>414</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>414</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>414</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>414</v>
       </c>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="AG17" s="36"/>
     </row>
-    <row r="18" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>414</v>
       </c>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>414</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>414</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>414</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="AF21" s="36"/>
       <c r="AG21" s="36"/>
     </row>
-    <row r="22" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>414</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>414</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>414</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>414</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>414</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>414</v>
       </c>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="AG27" s="36"/>
     </row>
-    <row r="28" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>414</v>
       </c>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AG28" s="36"/>
     </row>
-    <row r="29" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>414</v>
       </c>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="AG29" s="36"/>
     </row>
-    <row r="30" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>414</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>414</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>414</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="AF32" s="36"/>
       <c r="AG32" s="36"/>
     </row>
-    <row r="33" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>414</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>414</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>414</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>414</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>414</v>
       </c>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="AG37" s="36"/>
     </row>
-    <row r="38" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>414</v>
       </c>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="AG38" s="36"/>
     </row>
-    <row r="39" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>414</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>414</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>414</v>
       </c>
@@ -9259,7 +9259,7 @@
       <c r="AF41" s="36"/>
       <c r="AG41" s="36"/>
     </row>
-    <row r="42" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>414</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>414</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>414</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>414</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>414</v>
       </c>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="AG46" s="36"/>
     </row>
-    <row r="47" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>414</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="AG47" s="36"/>
     </row>
-    <row r="48" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>414</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>414</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>414</v>
       </c>
@@ -10008,7 +10008,7 @@
       <c r="AF50" s="36"/>
       <c r="AG50" s="36"/>
     </row>
-    <row r="51" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>414</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>414</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
         <v>414</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>414</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>414</v>
       </c>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="AG55" s="36"/>
     </row>
-    <row r="56" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>414</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>414</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>414</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="AF58" s="36"/>
       <c r="AG58" s="36"/>
     </row>
-    <row r="59" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>414</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>414</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
         <v>414</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>414</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
         <v>414</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>414</v>
       </c>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="AG64" s="36"/>
     </row>
-    <row r="65" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>414</v>
       </c>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="AG65" s="36"/>
     </row>
-    <row r="66" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>414</v>
       </c>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="AG66" s="36"/>
     </row>
-    <row r="67" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
         <v>414</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>414</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>414</v>
       </c>
@@ -11589,7 +11589,7 @@
       <c r="AF69" s="36"/>
       <c r="AG69" s="36"/>
     </row>
-    <row r="70" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>414</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
         <v>414</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>414</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
         <v>414</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>414</v>
       </c>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="AG74" s="36"/>
     </row>
-    <row r="75" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
         <v>414</v>
       </c>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="AG75" s="36"/>
     </row>
-    <row r="76" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:33" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>414</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>414</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>414</v>
       </c>
@@ -12338,7 +12338,7 @@
       <c r="AF78" s="36"/>
       <c r="AG78" s="36"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
         <v>414</v>
       </c>
@@ -12420,7 +12420,7 @@
       <c r="AF79" s="36"/>
       <c r="AG79" s="36"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>414</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>414</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>414</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>414</v>
       </c>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="AG83" s="36"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>414</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
         <v>414</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>414</v>
       </c>
@@ -12984,7 +12984,7 @@
       <c r="AF86" s="36"/>
       <c r="AG86" s="36"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>414</v>
       </c>
@@ -13066,7 +13066,7 @@
       <c r="AF87" s="36"/>
       <c r="AG87" s="36"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>414</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>414</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>414</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
         <v>414</v>
       </c>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AG91" s="36"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
         <v>414</v>
       </c>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="AG92" s="36"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
         <v>414</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
         <v>414</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="35" t="s">
         <v>414</v>
       </c>
@@ -13719,7 +13719,7 @@
       <c r="AF95" s="36"/>
       <c r="AG95" s="36"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
         <v>414</v>
       </c>
@@ -13801,7 +13801,7 @@
       <c r="AF96" s="36"/>
       <c r="AG96" s="36"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
         <v>414</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
         <v>414</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="35" t="s">
         <v>414</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="35" t="s">
         <v>414</v>
       </c>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="AG100" s="36"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="35" t="s">
         <v>414</v>
       </c>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="AG101" s="36"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="35" t="s">
         <v>414</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="35" t="s">
         <v>414</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="35" t="s">
         <v>414</v>
       </c>
@@ -14542,20 +14542,20 @@
   <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.76171875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.29296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.76171875" customWidth="1"/>
-    <col min="9" max="9" width="19.8203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5859375" customWidth="1"/>
-    <col min="21" max="21" width="13.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="21" customFormat="1" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:34" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>414</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>414</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>414</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>414</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>414</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>414</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>414</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>414</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>414</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>414</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>414</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>414</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:34" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>414</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>414</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>414</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>414</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>414</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>414</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>414</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>414</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>414</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>414</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>414</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>414</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>414</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>414</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>414</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>414</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>414</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>414</v>
       </c>
@@ -16830,7 +16830,7 @@
       </c>
       <c r="AG31" s="24"/>
     </row>
-    <row r="32" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>414</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>414</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>414</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>414</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="24" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:34" s="24" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>414</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>414</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>414</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>414</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>414</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>414</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>414</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>414</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>414</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>414</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>414</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>414</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>414</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>414</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>414</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>414</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>414</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>414</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>414</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>414</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>414</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>414</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>414</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>414</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:34" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>414</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>414</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>414</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>414</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>414</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>414</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>414</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>414</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:33" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>414</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:33" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:33" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>414</v>
       </c>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="AG69" s="24"/>
     </row>
-    <row r="70" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>414</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>414</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>414</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>414</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>414</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>414</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:33" s="24" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:33" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>414</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>414</v>
       </c>
@@ -20202,7 +20202,7 @@
       </c>
       <c r="AG77" s="24"/>
     </row>
-    <row r="78" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>414</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>414</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>414</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>414</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>414</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:33" s="28" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:33" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>414</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>414</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>414</v>
       </c>
@@ -20755,7 +20755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>414</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>414</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>414</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>414</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>414</v>
       </c>
@@ -21111,7 +21111,7 @@
       <c r="AF90" s="24"/>
       <c r="AG90" s="24"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>414</v>
       </c>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="AG91" s="24"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>414</v>
       </c>
@@ -21273,14 +21273,14 @@
       </c>
       <c r="AG92" s="24"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>414</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="25" t="s">
@@ -21358,7 +21358,7 @@
       </c>
       <c r="AG93" s="28"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>414</v>
       </c>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="AG94" s="24"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>414</v>
       </c>
@@ -21516,14 +21516,14 @@
       </c>
       <c r="AG95" s="28"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>414</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D96" s="25" t="s">
@@ -21595,7 +21595,7 @@
       </c>
       <c r="AG96" s="24"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>414</v>
       </c>
@@ -21678,7 +21678,7 @@
       <c r="AF97" s="28"/>
       <c r="AG97" s="28"/>
     </row>
-    <row r="98" spans="1:33" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>414</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>414</v>
       </c>
